--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_马丁组.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andubu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC、房东APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>配置汇总</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -192,15 +188,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>【房东PC】房源类型字段调整</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>【房东PC/App】分散式合租增加“房间别名字段”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】删除“房源标签”字段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -216,7 +204,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>【房东PC/App】房型彻底删除</t>
+    <t>【房东APP/PC】集中式房源删除“栋号”字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC/App】无房间的集中式房型彻底删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东APP】房东APP录整租取消公共照片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈冠龙,张蕴熠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC/APP/BS】房源类型字段调整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC/App】删除“房源标签”字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】合租房源删除逻辑调整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC,APP,BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC,APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -965,28 +1001,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="19" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="20" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="19" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="20" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="19" customWidth="1"/>
-    <col min="11" max="12" width="11.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="20"/>
-    <col min="14" max="14" width="23" style="20" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="23" customWidth="1"/>
-    <col min="17" max="18" width="17.625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="51.75" style="20" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
@@ -1056,13 +1094,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>29</v>
@@ -1078,18 +1116,28 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42535</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="R2" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
@@ -1098,13 +1146,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>28</v>
@@ -1120,18 +1168,28 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42535</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
@@ -1140,13 +1198,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>28</v>
@@ -1162,31 +1220,43 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42535</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
       <c r="B5" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>28</v>
@@ -1202,31 +1272,43 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42535</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
       <c r="B6" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>28</v>
@@ -1237,85 +1319,189 @@
       <c r="G6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>42535</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42535</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="13">
+        <v>42535</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13">
+        <v>42535</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42535</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="13">
+        <v>42535</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13">
+        <v>42535</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42535</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="13">
+        <v>42536</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42536</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42536</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
@@ -6393,7 +6579,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -6425,43 +6611,43 @@
     </row>
     <row r="3" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="J3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="M3" s="32" t="s">
         <v>44</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
